--- a/Ken/规格书.xlsx
+++ b/Ken/规格书.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\Unity\Ken\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D07604-F63E-423C-BA65-CDAAFF11A386}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27160DE8-7769-46F6-B5F1-BBF306BE2A98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11835" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="索引" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="人物" sheetId="3" r:id="rId3"/>
     <sheet name="AI" sheetId="5" r:id="rId4"/>
     <sheet name="Level01" sheetId="4" r:id="rId5"/>
+    <sheet name="Level02" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>人物行动速度 = 4.5个单位/秒</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +129,22 @@
   </si>
   <si>
     <t>初始状态有3个小怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用球撞击时的完美防御反弹力跳跃高台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续练习打怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反弹球打怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和无硬直敌人对抗</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -604,7 +622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559CF645-D67E-40AE-955C-5B7154A4E8DA}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -740,4 +758,69 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CC424A-B276-4535-9E0B-2166BBB4BAF5}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{730BEC90-7622-4D0D-B79D-C38FA3BFDF87}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>